--- a/database.xlsx
+++ b/database.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,15 +27,58 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
       <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,15 +90,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Accent6" xfId="1" builtinId="49" hidden="0"/>
+    <cellStyle name="20 % - Accent1" xfId="2" builtinId="30" hidden="0"/>
+    <cellStyle name="20 % - Accent2" xfId="3" builtinId="34" hidden="0"/>
+    <cellStyle name="20 % - Accent5" xfId="4" builtinId="46" hidden="0"/>
+    <cellStyle name="40 % - Accent5" xfId="5" builtinId="47" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,11 +472,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00800000"/>
+    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +495,11 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Database have been saved</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -450,6 +512,11 @@
           <t>00:22:00</t>
         </is>
       </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2022-02-18 at 11-39</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -462,6 +529,11 @@
           <t>01:02:10</t>
         </is>
       </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Counter model: АЭЛИТА РМ-204 С</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +546,11 @@
           <t>00:37:05</t>
         </is>
       </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1 of counter = 0:00:02.783886</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,7 +708,61 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00:31:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>00:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>00:37:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>